--- a/Construccion.xlsx
+++ b/Construccion.xlsx
@@ -1,1346 +1,2227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="20385" windowHeight="8940" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
-    <t xml:space="preserve">Identificador</t>
+    <t>Identificador</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre Completo</t>
+    <t>Nombre Completo</t>
   </si>
   <si>
-    <t xml:space="preserve">Característica</t>
+    <t>Característica</t>
   </si>
   <si>
-    <t xml:space="preserve">GERARDO IVAN AVECILLA GONZALEZ</t>
+    <t>GERARDO IVAN AVECILLA GONZALEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">El restaurante debe poder registrar datos de contacto</t>
+    <t>El restaurante debe poder registrar datos de contacto</t>
   </si>
   <si>
-    <t xml:space="preserve">La pagina web debe mostrar la información del restaurante y marcar directamente de la pagina</t>
+    <t>La pagina web debe mostrar la información del restaurante y marcar directamente de la pagina</t>
   </si>
   <si>
-    <t xml:space="preserve">La pagina web debe poder mandar un correo cuando alguien reserve una mesa</t>
+    <t>La pagina web debe poder mandar un correo cuando alguien reserve una mesa</t>
   </si>
   <si>
-    <t xml:space="preserve">El restaurante debe poder editar el numero de horas promedio que una mesa reservada esta ocupada</t>
+    <t>El restaurante debe poder editar el numero de horas promedio que una mesa reservada esta ocupada</t>
   </si>
   <si>
-    <t xml:space="preserve">El restaurante debe poder modificar en cualquier momento que mesas están ocupadas o desocupadas</t>
+    <t>El restaurante debe poder modificar en cualquier momento que mesas están ocupadas o desocupadas</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario final debe poder buscar restaurantes por zona o por nombre</t>
+    <t>El usuario final debe poder buscar restaurantes por zona o por nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">El modelo restaurante debe tener los campos: Nombre, ubicación, numero de mesas, tipo de comida, tiempo de espera, rango de precios.</t>
+    <t>El modelo restaurante debe tener los campos: Nombre, ubicación, numero de mesas, tipo de comida, tiempo de espera, rango de precios.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deben existir diferentes tipos de mesas según la capacidad (2 personas 5 personas, 10 personas, etc)</t>
+    <t>Deben existir diferentes tipos de mesas según la capacidad (2 personas 5 personas, 10 personas, etc)</t>
+  </si>
+  <si>
+    <t>GONZALEZ CERROBLANCO JESÚS FERNANDO</t>
+  </si>
+  <si>
+    <t>El cliente debe poder hacer reservación de mesas a traves de su página web</t>
+  </si>
+  <si>
+    <t>El cliente podra levantar un pedido de comida para llevar</t>
+  </si>
+  <si>
+    <t>El cliente podra pre-ordenar la comida para la reservación</t>
+  </si>
+  <si>
+    <t>El cliente podra visualizar el costo estimado de su pre-orden</t>
+  </si>
+  <si>
+    <t>El cliente podra visualizar el tiempo estimado de su pedido para llevar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
+    <cellStyle name="60% - Accent2" xfId="11" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="14" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="15" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="16" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="17" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="19" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32"/>
+    <cellStyle name="Bad" xfId="21" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="22" builtinId="23"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Calculation" xfId="24" builtinId="22"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Moneda" xfId="32" builtinId="4"/>
+    <cellStyle name="Heading 2" xfId="33" builtinId="17"/>
+    <cellStyle name="Heading 1" xfId="34" builtinId="16"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Warning Text" xfId="36" builtinId="11"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Coma[0]" xfId="39" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8"/>
+    <cellStyle name="Heading 3" xfId="41" builtinId="18"/>
+    <cellStyle name="Moneda[0]" xfId="42" builtinId="7"/>
+    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - Accent3" xfId="44" builtinId="39"/>
+    <cellStyle name="Linked Cell" xfId="45" builtinId="24"/>
+    <cellStyle name="Accent4" xfId="46" builtinId="41"/>
+    <cellStyle name="Porcentaje" xfId="47" builtinId="5"/>
+    <cellStyle name="Coma" xfId="48" builtinId="3"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="303030"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="22.0833333333333"/>
+    <col min="2" max="2" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="86.1416666666667"/>
+    <col min="4" max="4" width="18.7583333333333"/>
+    <col min="5" max="1025" width="11.5166666666667"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:1">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:1">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:1">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:1">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:1">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:1">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:1">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:1">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:1">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:1">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:1">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:1">
+      <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:1">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:1">
+      <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:1">
+      <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:1">
+      <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:1">
+      <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:1">
+      <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:1">
+      <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:1">
+      <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:1">
+      <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:1">
+      <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:1">
+      <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:1">
+      <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:1">
+      <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:1">
+      <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:1">
+      <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:1">
+      <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:1">
+      <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:1">
+      <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:1">
+      <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:1">
+      <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:1">
+      <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:1">
+      <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:1">
+      <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:1">
+      <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:1">
+      <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:1">
+      <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:1">
+      <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:1">
+      <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:1">
+      <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:1">
+      <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:1">
+      <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:1">
+      <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:1">
+      <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:1">
+      <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:1">
+      <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:1">
+      <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:1">
+      <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:1">
+      <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:1">
+      <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:1">
+      <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:1">
+      <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:1">
+      <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:1">
+      <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:1">
+      <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:1">
+      <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:1">
+      <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:1">
+      <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:1">
+      <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:1">
+      <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:1">
+      <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:1">
+      <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:1">
+      <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:1">
+      <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:1">
+      <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:1">
+      <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:1">
+      <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:1">
+      <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:1">
+      <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:1">
+      <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:1">
+      <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:1">
+      <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:1">
+      <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:1">
+      <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:1">
+      <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:1">
+      <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:1">
+      <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:1">
+      <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:1">
+      <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:1">
+      <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:1">
+      <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+    <row r="98" spans="1:1">
+      <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+    <row r="99" spans="1:1">
+      <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+    <row r="100" spans="1:1">
+      <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+    <row r="101" spans="1:1">
+      <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+    <row r="102" spans="1:1">
+      <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+    <row r="103" spans="1:1">
+      <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+    <row r="104" spans="1:1">
+      <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+    <row r="105" spans="1:1">
+      <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+    <row r="106" spans="1:1">
+      <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+    <row r="107" spans="1:1">
+      <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+    <row r="108" spans="1:1">
+      <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+    <row r="109" spans="1:1">
+      <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+    <row r="110" spans="1:1">
+      <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+    <row r="111" spans="1:1">
+      <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+    <row r="112" spans="1:1">
+      <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+    <row r="113" spans="1:1">
+      <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+    <row r="114" spans="1:1">
+      <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+    <row r="115" spans="1:1">
+      <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+    <row r="116" spans="1:1">
+      <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+    <row r="117" spans="1:1">
+      <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+    <row r="118" spans="1:1">
+      <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+    <row r="119" spans="1:1">
+      <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+    <row r="120" spans="1:1">
+      <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+    <row r="121" spans="1:1">
+      <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+    <row r="122" spans="1:1">
+      <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+    <row r="123" spans="1:1">
+      <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+    <row r="124" spans="1:1">
+      <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+    <row r="125" spans="1:1">
+      <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+    <row r="126" spans="1:1">
+      <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+    <row r="127" spans="1:1">
+      <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+    <row r="128" spans="1:1">
+      <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+    <row r="129" spans="1:1">
+      <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+    <row r="130" spans="1:1">
+      <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+    <row r="131" spans="1:1">
+      <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+    <row r="132" spans="1:1">
+      <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+    <row r="133" spans="1:1">
+      <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+    <row r="134" spans="1:1">
+      <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+    <row r="135" spans="1:1">
+      <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+    <row r="136" spans="1:1">
+      <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+    <row r="137" spans="1:1">
+      <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+    <row r="138" spans="1:1">
+      <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+    <row r="139" spans="1:1">
+      <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+    <row r="140" spans="1:1">
+      <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+    <row r="141" spans="1:1">
+      <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+    <row r="142" spans="1:1">
+      <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+    <row r="143" spans="1:1">
+      <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+    <row r="144" spans="1:1">
+      <c r="A144">
         <v>143</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+    <row r="145" spans="1:1">
+      <c r="A145">
         <v>144</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+    <row r="146" spans="1:1">
+      <c r="A146">
         <v>145</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+    <row r="147" spans="1:1">
+      <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+    <row r="148" spans="1:1">
+      <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+    <row r="149" spans="1:1">
+      <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+    <row r="150" spans="1:1">
+      <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+    <row r="151" spans="1:1">
+      <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+    <row r="152" spans="1:1">
+      <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+    <row r="153" spans="1:1">
+      <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+    <row r="154" spans="1:1">
+      <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+    <row r="155" spans="1:1">
+      <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+    <row r="156" spans="1:1">
+      <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
+    <row r="157" spans="1:1">
+      <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
+    <row r="158" spans="1:1">
+      <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
+    <row r="159" spans="1:1">
+      <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="n">
+    <row r="160" spans="1:1">
+      <c r="A160">
         <v>159</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="n">
+    <row r="161" spans="1:1">
+      <c r="A161">
         <v>160</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
+    <row r="162" spans="1:1">
+      <c r="A162">
         <v>161</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="n">
+    <row r="163" spans="1:1">
+      <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
+    <row r="164" spans="1:1">
+      <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
+    <row r="165" spans="1:1">
+      <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
+    <row r="166" spans="1:1">
+      <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
+    <row r="167" spans="1:1">
+      <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
+    <row r="168" spans="1:1">
+      <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="n">
+    <row r="169" spans="1:1">
+      <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
+    <row r="170" spans="1:1">
+      <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
+    <row r="171" spans="1:1">
+      <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
+    <row r="172" spans="1:1">
+      <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
+    <row r="173" spans="1:1">
+      <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
+    <row r="174" spans="1:1">
+      <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
+    <row r="175" spans="1:1">
+      <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
+    <row r="176" spans="1:1">
+      <c r="A176">
         <v>175</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
+    <row r="177" spans="1:1">
+      <c r="A177">
         <v>176</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
+    <row r="178" spans="1:1">
+      <c r="A178">
         <v>177</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
+    <row r="179" spans="1:1">
+      <c r="A179">
         <v>178</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
+    <row r="180" spans="1:1">
+      <c r="A180">
         <v>179</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
+    <row r="181" spans="1:1">
+      <c r="A181">
         <v>180</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
+    <row r="182" spans="1:1">
+      <c r="A182">
         <v>181</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
+    <row r="183" spans="1:1">
+      <c r="A183">
         <v>182</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
+    <row r="184" spans="1:1">
+      <c r="A184">
         <v>183</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
+    <row r="185" spans="1:1">
+      <c r="A185">
         <v>184</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
+    <row r="186" spans="1:1">
+      <c r="A186">
         <v>185</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
+    <row r="187" spans="1:1">
+      <c r="A187">
         <v>186</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
+    <row r="188" spans="1:1">
+      <c r="A188">
         <v>187</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="n">
+    <row r="189" spans="1:1">
+      <c r="A189">
         <v>188</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
+    <row r="190" spans="1:1">
+      <c r="A190">
         <v>189</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="n">
+    <row r="191" spans="1:1">
+      <c r="A191">
         <v>190</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="n">
+    <row r="192" spans="1:1">
+      <c r="A192">
         <v>191</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="n">
+    <row r="193" spans="1:1">
+      <c r="A193">
         <v>192</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="n">
+    <row r="194" spans="1:1">
+      <c r="A194">
         <v>193</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="n">
+    <row r="195" spans="1:1">
+      <c r="A195">
         <v>194</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
+    <row r="196" spans="1:1">
+      <c r="A196">
         <v>195</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
+    <row r="197" spans="1:1">
+      <c r="A197">
         <v>196</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
+    <row r="198" spans="1:1">
+      <c r="A198">
         <v>197</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
+    <row r="199" spans="1:1">
+      <c r="A199">
         <v>198</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
+    <row r="200" spans="1:1">
+      <c r="A200">
         <v>199</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
+    <row r="201" spans="1:1">
+      <c r="A201">
         <v>200</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="n">
+    <row r="202" spans="1:1">
+      <c r="A202">
         <v>201</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="n">
+    <row r="203" spans="1:1">
+      <c r="A203">
         <v>202</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="n">
+    <row r="204" spans="1:1">
+      <c r="A204">
         <v>203</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="n">
+    <row r="205" spans="1:1">
+      <c r="A205">
         <v>204</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="n">
+    <row r="206" spans="1:1">
+      <c r="A206">
         <v>205</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="n">
+    <row r="207" spans="1:1">
+      <c r="A207">
         <v>206</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="n">
+    <row r="208" spans="1:1">
+      <c r="A208">
         <v>207</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="n">
+    <row r="209" spans="1:1">
+      <c r="A209">
         <v>208</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="n">
+    <row r="210" spans="1:1">
+      <c r="A210">
         <v>209</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="n">
+    <row r="211" spans="1:1">
+      <c r="A211">
         <v>210</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="n">
+    <row r="212" spans="1:1">
+      <c r="A212">
         <v>211</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="n">
+    <row r="213" spans="1:1">
+      <c r="A213">
         <v>212</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="n">
+    <row r="214" spans="1:1">
+      <c r="A214">
         <v>213</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="n">
+    <row r="215" spans="1:1">
+      <c r="A215">
         <v>214</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="n">
+    <row r="216" spans="1:1">
+      <c r="A216">
         <v>215</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="n">
+    <row r="217" spans="1:1">
+      <c r="A217">
         <v>216</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="n">
+    <row r="218" spans="1:1">
+      <c r="A218">
         <v>217</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="n">
+    <row r="219" spans="1:1">
+      <c r="A219">
         <v>218</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="n">
+    <row r="220" spans="1:1">
+      <c r="A220">
         <v>219</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="n">
+    <row r="221" spans="1:1">
+      <c r="A221">
         <v>220</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="n">
+    <row r="222" spans="1:1">
+      <c r="A222">
         <v>221</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="n">
+    <row r="223" spans="1:1">
+      <c r="A223">
         <v>222</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1348,28 +2229,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="84.1"/>
+    <col min="2" max="2" width="18.2"/>
+    <col min="3" max="3" width="21.5333333333333"/>
+    <col min="4" max="1025" width="11.5166666666667"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Construccion.xlsx
+++ b/Construccion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8940" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12810" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>Identificador</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>El cliente podra visualizar el tiempo estimado de su pedido para llevar</t>
+  </si>
+  <si>
+    <t>MUÑOZ MANDUJANO MARTIN</t>
+  </si>
+  <si>
+    <t>El cliente debe poder visualizar desde la pagina su cuenta actual</t>
+  </si>
+  <si>
+    <t>La informacion de la cuenta actual debe mostrar: Comida, precio individual, costo total de su cuenta</t>
+  </si>
+  <si>
+    <t>La pagina web tendra una seccion para poder ver las promociones y ofertas que tenga el restaurante</t>
+  </si>
+  <si>
+    <t>La pagina web debe tener una seccion para quejas y recomendaciones</t>
+  </si>
+  <si>
+    <t>Complementando la caracteristica 7 el usuario a la hora reservar mesa podra seleccionar la mesa que desea utilizar (su ubicacion)</t>
   </si>
 </sst>
 </file>
@@ -77,17 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,14 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,11 +129,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,14 +141,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,9 +159,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,9 +190,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,9 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,43 +257,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -254,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,8 +464,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,15 +490,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +520,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -521,169 +558,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -701,45 +714,45 @@
     <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
     <cellStyle name="Accent5" xfId="8" builtinId="45"/>
     <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
-    <cellStyle name="60% - Accent2" xfId="11" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="14" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="15" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="16" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="17" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="19" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32"/>
-    <cellStyle name="Bad" xfId="21" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="22" builtinId="23"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Calculation" xfId="24" builtinId="22"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
     <cellStyle name="Total" xfId="25" builtinId="25"/>
     <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
     <cellStyle name="Input" xfId="30" builtinId="20"/>
     <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Moneda" xfId="32" builtinId="4"/>
-    <cellStyle name="Heading 2" xfId="33" builtinId="17"/>
-    <cellStyle name="Heading 1" xfId="34" builtinId="16"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Warning Text" xfId="36" builtinId="11"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Coma[0]" xfId="39" builtinId="6"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8"/>
-    <cellStyle name="Heading 3" xfId="41" builtinId="18"/>
-    <cellStyle name="Moneda[0]" xfId="42" builtinId="7"/>
-    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - Accent3" xfId="44" builtinId="39"/>
-    <cellStyle name="Linked Cell" xfId="45" builtinId="24"/>
-    <cellStyle name="Accent4" xfId="46" builtinId="41"/>
-    <cellStyle name="Porcentaje" xfId="47" builtinId="5"/>
-    <cellStyle name="Coma" xfId="48" builtinId="3"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1007,7 +1020,7 @@
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="2"/>
@@ -1173,29 +1186,59 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">

--- a/Construccion.xlsx
+++ b/Construccion.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Nueva carpeta\Escuela\6to Semestre\Taller\Proyectos\Resto1.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12810" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12810" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Identificador</t>
   </si>
@@ -88,371 +92,51 @@
   </si>
   <si>
     <t>Complementando la caracteristica 7 el usuario a la hora reservar mesa podra seleccionar la mesa que desea utilizar (su ubicacion)</t>
+  </si>
+  <si>
+    <t>MONTES PEREZ SERGIO</t>
+  </si>
+  <si>
+    <t>El cliente podra calificar platillos</t>
+  </si>
+  <si>
+    <t>El cliente podra calificar Meseros</t>
+  </si>
+  <si>
+    <t>El cliente podra calificar restaurantes</t>
+  </si>
+  <si>
+    <t>Complementando la caracteristica 9 el cliente podra reservar meseros</t>
+  </si>
+  <si>
+    <t>complementando la caracteristica 18 el cliente pueda ver la calificacion de dicha comida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -460,301 +144,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -763,7 +179,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1015,21 +431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.0833333333333"/>
-    <col min="2" max="2" width="41.25" customWidth="1"/>
-    <col min="3" max="3" width="86.1416666666667"/>
-    <col min="4" max="4" width="18.7583333333333"/>
-    <col min="5" max="1025" width="11.5166666666667"/>
+    <col min="1" max="1" width="22.140625"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="86.140625"/>
+    <col min="4" max="4" width="18.7109375"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1241,67 +656,97 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2262,8 +1707,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2272,24 +1717,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="84.1"/>
-    <col min="2" max="2" width="18.2"/>
-    <col min="3" max="3" width="21.5333333333333"/>
-    <col min="4" max="1025" width="11.5166666666667"/>
+    <col min="1" max="1" width="84.140625"/>
+    <col min="2" max="2" width="18.140625"/>
+    <col min="3" max="3" width="21.5703125"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Construccion.xlsx
+++ b/Construccion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Identificador</t>
   </si>
@@ -109,7 +109,10 @@
     <t>Complementando la caracteristica 9 el cliente podra reservar meseros</t>
   </si>
   <si>
-    <t>complementando la caracteristica 18 el cliente pueda ver la calificacion de dicha comida</t>
+    <t>Complementando la caracteristica 18 el cliente pueda ver la calificacion de dicha comida</t>
+  </si>
+  <si>
+    <t>Complementando a la caracteristica 2 la pagina tambien puede mostrar la calificacion del restaurante</t>
   </si>
 </sst>
 </file>
@@ -434,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -714,6 +717,12 @@
     <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
